--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,19</t>
+          <t>0,27; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,87</t>
+          <t>-0,35; 1,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,53</t>
+          <t>-0,1; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,17</t>
+          <t>0,13; 1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,25</t>
+          <t>-1,93; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,11; —</t>
+          <t>-79,92; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 119,72</t>
+          <t>-64,74; 148,77</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,76</t>
+          <t>0,3; 2,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,84</t>
+          <t>-0,0; 2,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,97</t>
+          <t>0,47; 5,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1456,24</t>
+          <t>-8,63; 1307,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 538,29</t>
+          <t>-16,74; 504,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 244,29</t>
+          <t>7,66; 295,41</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,64</t>
+          <t>2,73; 7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,94</t>
+          <t>1,76; 7,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,42</t>
+          <t>1,33; 5,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,15; 1320,44</t>
+          <t>107,54; 1417,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,19; 900,93</t>
+          <t>40,62; 925,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 256,02</t>
+          <t>27,21; 250,89</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,11</t>
+          <t>4,22; 10,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,95</t>
+          <t>4,29; 9,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,49</t>
+          <t>2,23; 9,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,27; 240,58</t>
+          <t>50,97; 220,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>103,91; 443,73</t>
+          <t>100,75; 441,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,96; 163,47</t>
+          <t>31,12; 156,76</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,86</t>
+          <t>2,19; 3,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,43</t>
+          <t>1,9; 3,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,26</t>
+          <t>2,39; 4,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>129,26; 360,9</t>
+          <t>130,69; 355,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>154,55; 465,59</t>
+          <t>136,17; 434,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,97; 163,98</t>
+          <t>68,21; 168,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,15</t>
+          <t>0,27; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,5</t>
+          <t>-0,03; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,19</t>
+          <t>0,13; 1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,92; —</t>
+          <t>-67,75; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,73</t>
+          <t>0,27; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,83</t>
+          <t>-0,1; 2,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 1307,73</t>
+          <t>-13,36; 1468,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 504,45</t>
+          <t>-13,46; 540,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,87</t>
+          <t>2,91; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,18</t>
+          <t>1,84; 7,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>107,54; 1417,64</t>
+          <t>106,76; 1432,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,62; 925,94</t>
+          <t>46,56; 932,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,7</t>
+          <t>4,26; 11,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,68</t>
+          <t>4,07; 9,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,97; 220,13</t>
+          <t>51,93; 234,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>100,75; 441,69</t>
+          <t>96,33; 442,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,75</t>
+          <t>2,14; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,34</t>
+          <t>1,9; 3,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>130,69; 355,95</t>
+          <t>126,46; 348,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>136,17; 434,88</t>
+          <t>147,68; 468,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,06</t>
+          <t>0,27; 2,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,81</t>
+          <t>-0,37; 1,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,46</t>
+          <t>-0,13; 1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,13</t>
+          <t>0,13; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,36</t>
+          <t>-1,93; 1,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,75; —</t>
+          <t>-71,11; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 148,77</t>
+          <t>-64,03; 119,72</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,8</t>
+          <t>0,29; 2,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,77</t>
+          <t>-0,14; 2,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,91</t>
+          <t>0,35; 5,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 1468,37</t>
+          <t>-9,19; 1456,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 540,51</t>
+          <t>-16,14; 538,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 295,41</t>
+          <t>-3,28; 244,29</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,82</t>
+          <t>2,55; 7,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,25</t>
+          <t>1,9; 6,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,43</t>
+          <t>1,32; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>106,76; 1432,89</t>
+          <t>81,15; 1320,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,56; 932,68</t>
+          <t>46,19; 900,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,21; 250,89</t>
+          <t>30,61; 256,02</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,18</t>
+          <t>4,19; 11,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,59</t>
+          <t>4,55; 9,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,45</t>
+          <t>2,0; 9,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,93; 234,35</t>
+          <t>48,27; 240,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,33; 442,77</t>
+          <t>103,91; 443,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,12; 156,76</t>
+          <t>33,96; 163,47</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,78</t>
+          <t>2,18; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,39</t>
+          <t>1,91; 3,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,32; 4,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>126,46; 348,79</t>
+          <t>129,26; 360,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>147,68; 468,31</t>
+          <t>154,55; 465,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,21; 168,16</t>
+          <t>66,97; 163,98</t>
         </is>
       </c>
     </row>
